--- a/17. Análise dos Eventos Para Cada Cenário.xlsx
+++ b/17. Análise dos Eventos Para Cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FreireBreck\Documents\projeto-suellen\engenharia-de-requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C368D8-0503-4F13-8CAB-616245E65BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D591F1-6F57-415A-B947-26BB8C91A65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,45 +227,12 @@
     <t>Vendas orça o produto e retorna para o cliente</t>
   </si>
   <si>
-    <t>Vendas fecha o contrato e envia para o cliente</t>
-  </si>
-  <si>
-    <t>Fábrica inicia a produção do produto</t>
-  </si>
-  <si>
-    <t>Assistência envia o produto configurado para o cliente</t>
-  </si>
-  <si>
-    <t>Cliente solicita o cancelamento do contrato</t>
-  </si>
-  <si>
     <t>Assistência inicia o processo de cancelamento</t>
   </si>
   <si>
-    <t>Cliente envia um feedback sobre o produto</t>
-  </si>
-  <si>
-    <t>Cliente solicita a manutenção do produto</t>
-  </si>
-  <si>
-    <t>Assistência gera o orçamento da manutenção</t>
-  </si>
-  <si>
-    <t>Assistência valida a garantia do produto</t>
-  </si>
-  <si>
-    <t>Assistência realiza o concerto do produto</t>
-  </si>
-  <si>
-    <t>Cliente recebe produto em perfeito estado</t>
-  </si>
-  <si>
     <t>Cliente envia solicitação de compra</t>
   </si>
   <si>
-    <t>Fábrica envia o produto com configurações base</t>
-  </si>
-  <si>
     <t>Banco envia extrato de pagamento da fatura</t>
   </si>
   <si>
@@ -279,6 +246,39 @@
   </si>
   <si>
     <t>x(13)</t>
+  </si>
+  <si>
+    <t>Cliente envia contrato assinado</t>
+  </si>
+  <si>
+    <t>Fábrica envia feedback da Ordem de Produção</t>
+  </si>
+  <si>
+    <t>Fábrica envia o SuSmart com configuração Básica</t>
+  </si>
+  <si>
+    <t>Cliente solicita registro de cancelamento da SuSmart</t>
+  </si>
+  <si>
+    <t>Cliente registra o feedback sobre SuSmart</t>
+  </si>
+  <si>
+    <t>Cliente solicita a manutenção do SuSmart</t>
+  </si>
+  <si>
+    <t>Assistência avalia a SuSmart</t>
+  </si>
+  <si>
+    <t>Assistência cria orçamento de manunteção</t>
+  </si>
+  <si>
+    <t>Técnico realiza concerto da SuSmart</t>
+  </si>
+  <si>
+    <t>Cliente recebe a SuSmart em perfeito estado</t>
+  </si>
+  <si>
+    <t>Cliente recebe SuSmart Configurada</t>
   </si>
 </sst>
 </file>
@@ -671,6 +671,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -680,12 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -705,9 +702,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -715,36 +745,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,25 +1103,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1148,10 +1148,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6">
@@ -1170,8 +1170,8 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -1210,13 +1210,13 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1228,13 +1228,13 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -1246,38 +1246,38 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
@@ -1285,14 +1285,14 @@
       <c r="I9" s="5"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="6">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1304,17 +1304,17 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -1326,13 +1326,13 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -1364,17 +1364,17 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
@@ -1386,16 +1386,16 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1404,18 +1404,18 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6">
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1424,16 +1424,16 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1442,15 +1442,15 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1472,12 +1472,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
